--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Silvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mailserver\public2\Silvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C72AC-CE66-4595-BB47-B25DE057D51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD0EE2-DCCC-48F4-9494-C214E2305658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STARTING TIME</t>
   </si>
@@ -62,12 +62,27 @@
   </si>
   <si>
     <t>TOTAL HOURS</t>
+  </si>
+  <si>
+    <t>Total Hours Worked</t>
+  </si>
+  <si>
+    <t>Total Contracted</t>
+  </si>
+  <si>
+    <t>Lieu Time</t>
+  </si>
+  <si>
+    <t>Decimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,10 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,24 +404,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -413,71 +435,158 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.3125</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="D2" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>IFERROR(TEXT(C2-D2,"H:MM") - B2,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>IF(OR(B2="",C2=""),"",IFERROR(TEXT(C2-D2,"H:MM") - B2,""))</f>
+        <v>0.36111111111111116</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2*24</f>
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="H2" s="4">
+        <f>E7</f>
+        <v>37.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f xml:space="preserve"> H2 - 37.5</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="B3" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">IFERROR(TEXT(C3-D3,"H:MM") - B3,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E6" si="0">IF(OR(B3="",C3=""),"",IFERROR(TEXT(C3-D3,"H:MM") - B3,""))</f>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F6" si="1">E3*24</f>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9166666666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="B5" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0833333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.52430555555555558</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1">
-        <f>SUM(E2:E6)</f>
-        <v>0</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <f>SUM(E2:E6) *24</f>
+        <v>37.5</v>
+      </c>
+      <c r="F7" s="4">
+        <f xml:space="preserve"> SUM(F2:F6)</f>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>